--- a/timeline/Philip Gabriel Andrada - CKME136 - Gantt Chart.xlsx
+++ b/timeline/Philip Gabriel Andrada - CKME136 - Gantt Chart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Upload of Changes to Code and Report</t>
+  </si>
+  <si>
+    <t>Initial Presentation of Report</t>
+  </si>
+  <si>
+    <t>Changes to the Report Based on Recommendations</t>
   </si>
 </sst>
 </file>
@@ -177,9 +183,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Research on Dataset</c:v>
                 </c:pt>
@@ -227,16 +233,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Upload of Changes to Code and Report</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Initial Presentation of Report</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Changes to the Report Based on Recommendations</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>42618</c:v>
                 </c:pt>
@@ -284,6 +296,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42683</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -322,9 +340,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Research on Dataset</c:v>
                 </c:pt>
@@ -372,16 +390,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Upload of Changes to Code and Report</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Initial Presentation of Report</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Changes to the Report Based on Recommendations</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:f>Sheet1!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -429,6 +453,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -444,11 +474,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="91141632"/>
-        <c:axId val="85771392"/>
+        <c:axId val="108750336"/>
+        <c:axId val="516489792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91141632"/>
+        <c:axId val="108750336"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -457,7 +487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85771392"/>
+        <c:crossAx val="516489792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -465,7 +495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85771392"/>
+        <c:axId val="516489792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42618"/>
@@ -477,7 +507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91141632"/>
+        <c:crossAx val="108750336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="15"/>
@@ -502,13 +532,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -532,8 +562,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D17" totalsRowShown="0">
-  <autoFilter ref="A1:D17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D19" totalsRowShown="0">
+  <autoFilter ref="A1:D19"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Task"/>
     <tableColumn id="2" name="Start Date" dataDxfId="1"/>
@@ -833,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,6 +1131,36 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>42683</v>
+      </c>
+      <c r="C18" s="1">
+        <v>42683</v>
+      </c>
+      <c r="D18">
+        <f>C18-B18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C19" s="1">
+        <v>42688</v>
+      </c>
+      <c r="D19">
+        <f>C19-B19</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/timeline/Philip Gabriel Andrada - CKME136 - Gantt Chart.xlsx
+++ b/timeline/Philip Gabriel Andrada - CKME136 - Gantt Chart.xlsx
@@ -458,7 +458,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -474,11 +474,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="108750336"/>
-        <c:axId val="516489792"/>
+        <c:axId val="519378944"/>
+        <c:axId val="86917696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108750336"/>
+        <c:axId val="519378944"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -487,7 +487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516489792"/>
+        <c:crossAx val="86917696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -495,7 +495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="516489792"/>
+        <c:axId val="86917696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42618"/>
@@ -507,7 +507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108750336"/>
+        <c:crossAx val="519378944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="15"/>
@@ -866,7 +866,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,11 +1154,11 @@
         <v>42686</v>
       </c>
       <c r="C19" s="1">
-        <v>42688</v>
+        <v>42689</v>
       </c>
       <c r="D19">
         <f>C19-B19</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/timeline/Philip Gabriel Andrada - CKME136 - Gantt Chart.xlsx
+++ b/timeline/Philip Gabriel Andrada - CKME136 - Gantt Chart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Task</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Changes to the Report Based on Recommendations</t>
+  </si>
+  <si>
+    <t>Added Summaries and Visualizations to Other Methods</t>
   </si>
 </sst>
 </file>
@@ -183,9 +186,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Research on Dataset</c:v>
                 </c:pt>
@@ -239,16 +242,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Changes to the Report Based on Recommendations</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Added Summaries and Visualizations to Other Methods</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>42618</c:v>
                 </c:pt>
@@ -302,6 +308,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>42686</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -340,9 +349,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Research on Dataset</c:v>
                 </c:pt>
@@ -396,16 +405,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Changes to the Report Based on Recommendations</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Added Summaries and Visualizations to Other Methods</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$19</c:f>
+              <c:f>Sheet1!$D$2:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -459,6 +471,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -474,11 +489,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="519378944"/>
-        <c:axId val="86917696"/>
+        <c:axId val="514636288"/>
+        <c:axId val="523977280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="519378944"/>
+        <c:axId val="514636288"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -487,7 +502,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86917696"/>
+        <c:crossAx val="523977280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -495,7 +510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86917696"/>
+        <c:axId val="523977280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42618"/>
@@ -507,7 +522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519378944"/>
+        <c:crossAx val="514636288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="15"/>
@@ -532,13 +547,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -562,8 +577,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D19" totalsRowShown="0">
-  <autoFilter ref="A1:D19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D20" totalsRowShown="0">
+  <autoFilter ref="A1:D20"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Task"/>
     <tableColumn id="2" name="Start Date" dataDxfId="1"/>
@@ -863,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,6 +1176,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C20" s="1">
+        <v>42690</v>
+      </c>
+      <c r="D20">
+        <f>C20-B20</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
